--- a/产品参数工作簿.xlsx
+++ b/产品参数工作簿.xlsx
@@ -485,12 +485,14 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -660,7 +662,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+      <selection pane="topLeft" activeCell="M29" activeCellId="1" sqref="C69:C77 M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,7 +671,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10.09"/>
@@ -947,7 +949,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C69:C77 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1327,14 +1329,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C69:C77 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="5" style="0" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9"/>
@@ -1598,17 +1600,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="5" style="0" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9"/>
@@ -1658,26 +1660,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>69</v>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,205 +1684,172 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,10 +1857,10 @@
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,10 +1868,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,44 +1879,32 @@
         <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
@@ -1962,392 +1913,533 @@
       <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>84</v>
+      <c r="C32" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>14</v>
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>30</v>
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>15</v>
+      <c r="A35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>23</v>
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>71</v>
+      <c r="A37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>72</v>
+      <c r="A38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>42</v>
+      <c r="A45" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>42</v>
+      <c r="A46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2"/>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="B73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="B74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="2"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="4" t="n">
+      <c r="B79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="4" t="n">
         <v>9001</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="7" t="n">
+      <c r="B80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="7" t="n">
         <v>935</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="7" t="n">
+      <c r="B81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="7" t="n">
         <v>938</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="B84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="B87" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>46</v>
       </c>
     </row>
